--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1648.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1648.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.003764706772134</v>
+        <v>2.543301582336426</v>
       </c>
       <c r="B1">
-        <v>3.529070095385301</v>
+        <v>3.209999561309814</v>
       </c>
       <c r="C1">
-        <v>3.223397140716</v>
+        <v>2.938354253768921</v>
       </c>
       <c r="D1">
-        <v>2.352003720541653</v>
+        <v>3.335667610168457</v>
       </c>
       <c r="E1">
-        <v>1.259481519136763</v>
+        <v>1.947994112968445</v>
       </c>
     </row>
   </sheetData>
